--- a/extra_addons/aaf__golf_view/lib/datosTorneos.xlsx
+++ b/extra_addons/aaf__golf_view/lib/datosTorneos.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>date</t>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
   <si>
     <t>id_campo</t>
@@ -84,13 +87,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,45 +323,54 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>43913.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>44536.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44545.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>43690.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>44523.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44533.0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>43192.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>44503.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44507.0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
